--- a/pred_ohlcv/54_21/2019-10-29 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 LOOM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-41846.60298449611</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-41846.60298449611</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-25425.57638449611</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-175998.7506844961</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-163320.2253844961</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-143200.2253844961</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-143200.2253844961</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-228556.4101844961</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-208556.4101844961</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>24345.97841550385</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>7245.978415503851</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-78455.63808449615</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-67355.63808449615</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-67355.63808449615</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-67355.63808449615</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-67741.63808449615</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-29568.60598449616</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-12425.60608449616</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>163680.3548155038</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-311701.1348844962</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-311701.1348844962</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-314532.6784844963</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-239655.3954844963</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-53579.85838449627</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>4183.43451550373</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>503960.6087155038</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>511072.6087155038</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>492771.6634155037</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>513462.2853155037</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>513462.2853155037</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>842046.9109498103</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>2366233.364196227</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>2194906.442396227</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>2416113.558196227</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>2416113.558196227</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>2185002.321296227</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>2185002.321296227</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1997125.690896227</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1881375.380996227</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1724068.454796227</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1501434.815796227</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1549271.131496227</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1470759.130896227</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1575371.626096227</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1423734.525596227</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1488766.220796227</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1488766.220796227</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1535245.235096227</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1535245.235096227</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1508308.275796227</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1508308.275796227</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 LOOM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-41846.60298449611</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-41846.60298449611</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-25425.57638449611</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-25425.57638449611</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-34411.08828449611</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-12339.26208449611</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-12339.26208449611</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-54619.29098449611</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-54619.29098449611</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-175998.7506844961</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-163320.2253844961</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-143200.2253844961</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-143200.2253844961</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-228556.4101844961</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-208556.4101844961</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>24345.97841550385</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>7245.978415503851</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-67355.63808449615</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-29568.60598449616</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-12425.60608449616</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>163680.3548155038</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-354904.4457844962</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-413053.3274844962</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-428053.3274844962</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-310177.1717844962</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-333282.6338844962</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-333282.6338844962</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-314532.6784844963</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-313492.6784844963</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-239655.3954844963</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-53579.85838449627</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>4183.43451550373</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>503960.6087155038</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>511072.6087155038</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>492771.6634155037</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>513462.2853155037</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>513462.2853155037</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>842046.9109498103</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>2366233.364196227</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>2194906.442396227</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>2416113.558196227</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>2416113.558196227</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>2185002.321296227</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>2185002.321296227</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1997125.690896227</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1881375.380996227</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1724068.454796227</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1501434.815796227</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1471154.671796227</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1615186.356896227</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1604156.958396227</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1535245.235096227</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1535245.235096227</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1508308.275796227</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1508308.275796227</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
